--- a/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1882837497458454</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3209355388468044</v>
+        <v>0.3209355388468043</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08009591813393903</v>
+        <v>0.0788888683611276</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08677672917836068</v>
+        <v>0.08738381606303214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1435258018293738</v>
+        <v>0.1404248898867563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2455181801886926</v>
+        <v>0.2475617649630242</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1300836437026389</v>
+        <v>0.131665679695657</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1444172281355026</v>
+        <v>0.1439703105788645</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1793535449079851</v>
+        <v>0.1762449985609523</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3246508240246302</v>
+        <v>0.3242748699988831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1130679683054274</v>
+        <v>0.1123739242063297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.125129447166823</v>
+        <v>0.1257803470389713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1704893929708597</v>
+        <v>0.1689516740169152</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3008998448443376</v>
+        <v>0.2983162719971169</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1175078672569844</v>
+        <v>0.1158229061380499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1272597564079413</v>
+        <v>0.1288577811420164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1965996628591416</v>
+        <v>0.1960681119489808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.319084938395202</v>
+        <v>0.3180511900831272</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1685022624743305</v>
+        <v>0.1682833834010889</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1872898045296343</v>
+        <v>0.1835077687050353</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2332581651415071</v>
+        <v>0.2302851171627473</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3749730274132732</v>
+        <v>0.3734375499910317</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1412123175490019</v>
+        <v>0.1396365493972509</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1542747567449886</v>
+        <v>0.1539962031243247</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2075594722113872</v>
+        <v>0.2074166335719496</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3427063914800219</v>
+        <v>0.3416493361683579</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.09699186419846452</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1439226889176867</v>
+        <v>0.1439226889176868</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04378126959051996</v>
+        <v>0.04316425469755046</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0505764682293811</v>
+        <v>0.0504273160235689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08490535507602015</v>
+        <v>0.08464927759704188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.150600009136664</v>
+        <v>0.1495652147840426</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03012183071397515</v>
+        <v>0.03002183147606316</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03668161879737573</v>
+        <v>0.03712734323178082</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08460632195863799</v>
+        <v>0.08415962833192313</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1079043392510184</v>
+        <v>0.1080818740261672</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03930728984459329</v>
+        <v>0.04027526342162887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04716049371545419</v>
+        <v>0.04692648061359135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08798298983849671</v>
+        <v>0.08759693161508107</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1341503521302077</v>
+        <v>0.1338997776617437</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0658688108209972</v>
+        <v>0.0656857937957586</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07449513388701172</v>
+        <v>0.07361384329886669</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1114769021678834</v>
+        <v>0.1113375911925591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1860600537800439</v>
+        <v>0.1857303916260409</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05007695045060169</v>
+        <v>0.05008297873251091</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05795170730127339</v>
+        <v>0.05767691530939778</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1122653689631545</v>
+        <v>0.1128253006050953</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1312568269843442</v>
+        <v>0.1320593313856165</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05461706743870236</v>
+        <v>0.05611933325099967</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06318372326503013</v>
+        <v>0.06174649699856768</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1073205678163447</v>
+        <v>0.1069375132199169</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1556163928574955</v>
+        <v>0.1545309790881611</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1774062737131643</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1539439916486062</v>
+        <v>0.1539439916486061</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07763469257615704</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06399217098697906</v>
+        <v>0.06318994617448891</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09288737013527447</v>
+        <v>0.08993217208654684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1455732389643377</v>
+        <v>0.1456606455698855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1264074418108309</v>
+        <v>0.1276345106477021</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05414559155328773</v>
+        <v>0.0547882391966754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08300770135980802</v>
+        <v>0.08243273958664034</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09913739995838369</v>
+        <v>0.09986605890981716</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1280578027615223</v>
+        <v>0.1285561567898465</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06483601640253468</v>
+        <v>0.06610700265423493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09602747622111132</v>
+        <v>0.09611894952710955</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1306469760636968</v>
+        <v>0.1303480097309518</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1343762674660335</v>
+        <v>0.133805001342336</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1182989344460313</v>
+        <v>0.1151032368603411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.152903919968579</v>
+        <v>0.1548114685857044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2179555765668589</v>
+        <v>0.2132469097775418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1837496945589158</v>
+        <v>0.1852081427813693</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1013817212302348</v>
+        <v>0.1040285227480743</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1458132192037153</v>
+        <v>0.1455592495178988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1616268212278287</v>
+        <v>0.1588608597107835</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1734091691294085</v>
+        <v>0.1734686294481806</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.101739972718241</v>
+        <v>0.1009791964132668</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.137397421628209</v>
+        <v>0.1428950715291088</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1755340435774803</v>
+        <v>0.1754200753698487</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1705829444991311</v>
+        <v>0.1685575527156286</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.125896030264757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1838590935858438</v>
+        <v>0.1838590935858439</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08763383293384923</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07398794092749555</v>
+        <v>0.07279687517046428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1141733317034428</v>
+        <v>0.1145498749404561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1709004968311184</v>
+        <v>0.1701869523690764</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08765685571901863</v>
+        <v>0.08954053590205313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1203650209365362</v>
+        <v>0.1197312705338181</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1651787257081104</v>
+        <v>0.1655567958112518</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08426582705131982</v>
+        <v>0.08414236523048688</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1202300528905874</v>
+        <v>0.12078271610568</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1710576949196378</v>
+        <v>0.1714555532021024</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09390753935017279</v>
+        <v>0.09315435606281906</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1370208494224723</v>
+        <v>0.138586732912125</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1991801123286822</v>
+        <v>0.1969427392616126</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.108563266179468</v>
+        <v>0.110366896275707</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1442453453668986</v>
+        <v>0.144803386274874</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1846820949462403</v>
+        <v>0.1863799228858222</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09847818215063361</v>
+        <v>0.09877110227815464</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.137507220028809</v>
+        <v>0.137842858608151</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1878885178206561</v>
+        <v>0.1887148006397421</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82637</v>
+        <v>81391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>84576</v>
+        <v>85168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>108268</v>
+        <v>105929</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>142039</v>
+        <v>143222</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>171075</v>
+        <v>173155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>193201</v>
+        <v>192603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>178396</v>
+        <v>175304</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>266875</v>
+        <v>266566</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>265352</v>
+        <v>263723</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>289354</v>
+        <v>290860</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>298187</v>
+        <v>295498</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>421430</v>
+        <v>417812</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121236</v>
+        <v>119497</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>124033</v>
+        <v>125590</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>148304</v>
+        <v>147903</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>184600</v>
+        <v>184002</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>221600</v>
+        <v>221312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>250556</v>
+        <v>245496</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>232013</v>
+        <v>229055</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>308242</v>
+        <v>306980</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>331402</v>
+        <v>327704</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>356751</v>
+        <v>356107</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>363023</v>
+        <v>362773</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>479983</v>
+        <v>478503</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>74140</v>
+        <v>73095</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>99330</v>
+        <v>99037</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>176296</v>
+        <v>175764</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>335923</v>
+        <v>333615</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47824</v>
+        <v>47665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64479</v>
+        <v>65263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>168223</v>
+        <v>167335</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>234303</v>
+        <v>234688</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>128971</v>
+        <v>132147</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>175520</v>
+        <v>174649</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>357623</v>
+        <v>356054</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>590524</v>
+        <v>589421</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>111543</v>
+        <v>111233</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>146305</v>
+        <v>144574</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>231469</v>
+        <v>231180</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>415019</v>
+        <v>414284</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79506</v>
+        <v>79515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>101868</v>
+        <v>101385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>223217</v>
+        <v>224331</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>285010</v>
+        <v>286753</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>179203</v>
+        <v>184132</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>235155</v>
+        <v>229806</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>436224</v>
+        <v>434667</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>685017</v>
+        <v>680239</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35286</v>
+        <v>34843</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>44696</v>
+        <v>43274</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79612</v>
+        <v>79660</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>89950</v>
+        <v>90823</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25796</v>
+        <v>26102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>38070</v>
+        <v>37806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>54440</v>
+        <v>54840</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>94107</v>
+        <v>94473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>66640</v>
+        <v>67946</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>90248</v>
+        <v>90334</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>143193</v>
+        <v>142865</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>194370</v>
+        <v>193544</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65231</v>
+        <v>63469</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73574</v>
+        <v>74492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119197</v>
+        <v>116622</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>130754</v>
+        <v>131792</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48299</v>
+        <v>49560</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66874</v>
+        <v>66758</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>88756</v>
+        <v>87237</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>127434</v>
+        <v>127478</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104570</v>
+        <v>103788</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>129128</v>
+        <v>134295</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>192390</v>
+        <v>192265</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>246742</v>
+        <v>243812</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>253023</v>
+        <v>248949</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>385634</v>
+        <v>386906</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>601686</v>
+        <v>599174</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>311553</v>
+        <v>318248</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>425141</v>
+        <v>422903</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>615837</v>
+        <v>617247</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>587671</v>
+        <v>586810</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>830756</v>
+        <v>834575</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1239996</v>
+        <v>1242880</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>321143</v>
+        <v>318568</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>462804</v>
+        <v>468093</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>701250</v>
+        <v>693373</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>385859</v>
+        <v>392269</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>509489</v>
+        <v>511460</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>688552</v>
+        <v>694882</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>686788</v>
+        <v>688831</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>950136</v>
+        <v>952455</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1362002</v>
+        <v>1367992</v>
       </c>
     </row>
     <row r="20">
